--- a/backend/expense_details.xlsx
+++ b/backend/expense_details.xlsx
@@ -416,24 +416,24 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Delivery Charge</v>
+        <v>Americano</v>
       </c>
       <c r="B2">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="C2" s="1">
-        <v>45824.23976851852</v>
+        <v>45855.23976851852</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Wine</v>
+        <v>Choco lava</v>
       </c>
       <c r="B3">
-        <v>1100</v>
+        <v>120</v>
       </c>
       <c r="C3" s="1">
-        <v>45823.23976851852</v>
+        <v>45855.23976851852</v>
       </c>
     </row>
   </sheetData>
